--- a/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -156,12 +156,6 @@
     <t>L5</t>
   </si>
   <si>
-    <t>$ 898.44</t>
-  </si>
-  <si>
-    <t>$ 89.28</t>
-  </si>
-  <si>
     <t>$ 987.72</t>
   </si>
   <si>
@@ -172,6 +166,15 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>$ 836.76</t>
+  </si>
+  <si>
+    <t>$ 50.96</t>
+  </si>
+  <si>
+    <t>$ 100</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -626,15 +629,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="15">
         <v>42036</v>
@@ -650,7 +653,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +776,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:XFD10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +792,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -871,7 +874,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -912,9 +915,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -960,9 +960,6 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
         <v>787.72</v>
       </c>
@@ -1006,9 +1003,6 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
       <c r="P5" s="6">
         <v>887.72</v>
       </c>
@@ -1052,9 +1046,6 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
       <c r="P6" s="6">
         <v>887.72</v>
       </c>
@@ -1098,9 +1089,6 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" s="6">
         <v>887.72</v>
       </c>
@@ -1142,9 +1130,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1161,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1199,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1248,7 +1233,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1290,7 +1275,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1386,7 @@
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -1430,85 +1415,134 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>42036</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="H6" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -11,15 +11,13 @@
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
-    <sheet name="Acc_Disbursement" sheetId="7" r:id="rId5"/>
-    <sheet name="Acc_Repayment" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -105,60 +103,9 @@
     <t>Head Office</t>
   </si>
   <si>
-    <t>Entry ID</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>mifos</t>
-  </si>
-  <si>
-    <t>ASSET</t>
-  </si>
-  <si>
-    <t>Cash(1)</t>
-  </si>
-  <si>
-    <t>Loan portfolio(2)</t>
-  </si>
-  <si>
     <t>Repayment</t>
   </si>
   <si>
-    <t>INCOME</t>
-  </si>
-  <si>
-    <t>Income from interest(7)</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>$ 5,000</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -166,22 +113,13 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
-  </si>
-  <si>
-    <t>$ 836.76</t>
-  </si>
-  <si>
-    <t>$ 50.96</t>
-  </si>
-  <si>
-    <t>$ 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,12 +134,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -302,16 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -629,17 +551,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="15">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11">
         <v>42036</v>
       </c>
     </row>
@@ -650,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +589,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -687,30 +609,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5000</v>
       </c>
       <c r="B2" s="6">
-        <v>898.44</v>
+        <v>836.76</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>4101.5600000000004</v>
+        <v>4163.24</v>
       </c>
       <c r="F2" s="6">
-        <v>787.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>849.4</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>179.66</v>
       </c>
       <c r="B3" s="6">
-        <v>89.28</v>
+        <v>50.96</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -719,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>90.38</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="F3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -745,12 +668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -759,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +699,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" s="6">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="L3" s="6">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -946,22 +869,22 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K4" s="6">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="L4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>787.72</v>
+        <v>987.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1144,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1088,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1197,9 +1120,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>23</v>
+        <v>640</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1208,32 +1131,30 @@
         <v>42036</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E2" s="6">
         <v>987.72</v>
       </c>
       <c r="F2" s="6">
-        <v>898.44</v>
+        <v>836.76</v>
       </c>
       <c r="G2" s="6">
-        <v>89.28</v>
+        <v>50.96</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="9">
-        <v>4101.5600000000004</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4163.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>19</v>
+        <v>632</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1262,287 +1183,8 @@
       <c r="J3" s="8">
         <v>5000</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42005</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="12"/>
-    <col min="7" max="7" width="21.85546875" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +717,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,17 +763,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -798,8 +800,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -837,14 +840,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -880,14 +884,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>987.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -923,14 +928,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -966,14 +972,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1009,14 +1016,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1052,10 +1060,11 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>741.06</v>
       </c>
     </row>
@@ -1069,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
